--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>Nro</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Resaltador grueso amarillo</t>
   </si>
   <si>
-    <t>Bloc adhesivo mediano - 76*76 fluorecente amarillo</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -105,16 +102,37 @@
     <t>Descripción del producto</t>
   </si>
   <si>
-    <t>Afiches</t>
-  </si>
-  <si>
-    <t>Hojas Adhesivas para logos</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
-    <t>Publicidad</t>
+    <t>CUADRICULADO 100 H. ESPIRAL ARAÑA - carta</t>
+  </si>
+  <si>
+    <t>ESPIRAL METALICO CUADRICULADO 100H. EAC -1/2 oficio</t>
+  </si>
+  <si>
+    <t>ESPIRAL, CUADRICULADO 100H - oficio</t>
+  </si>
+  <si>
+    <t>TRAPPER CUADR. PQTE. 200 H. COLOR ABC</t>
+  </si>
+  <si>
+    <t>Perforadora grande - 40 HJS. METAL IDEAL</t>
+  </si>
+  <si>
+    <t>Papel Bond Oficio - 500 H. 75 GR. BLANCO</t>
+  </si>
+  <si>
+    <t>Estuche - GEOMETRICO 30 CM. 4PZAS</t>
+  </si>
+  <si>
+    <t>Mochilas</t>
+  </si>
+  <si>
+    <t>Bloc adhesivo mediano - 76*76 fluorescente amarillo</t>
+  </si>
+  <si>
+    <t>Hojas - CARPETA CUADRIC. 3 PERF. 100H.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -238,33 +256,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,13 +315,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,23 +653,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G55"/>
+  <dimension ref="A2:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -602,26 +679,26 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -629,74 +706,74 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>38</v>
+        <v>26.4</v>
       </c>
       <c r="E4" s="1">
         <f>D4*B4</f>
-        <v>570</v>
+        <v>792</v>
       </c>
       <c r="F4" s="2">
         <f>E4/6.86</f>
-        <v>83.090379008746353</v>
+        <v>115.45189504373177</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>45</v>
+      <c r="B5" s="5">
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <f>D5*B5</f>
-        <v>1665</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F19" si="0">E5/6.86</f>
-        <v>242.71137026239066</v>
+        <f>E5/6.86</f>
+        <v>37.172011661807581</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
-        <v>2.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E14" si="1">D6*B6</f>
-        <v>94.5</v>
+        <f>D6*B6</f>
+        <v>1723.4999999999998</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>13.775510204081632</v>
+        <f>E6/6.86</f>
+        <v>251.23906705539355</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -707,146 +784,146 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>2.1</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>94.5</v>
+        <f>D7*B7</f>
+        <v>1665</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>13.775510204081632</v>
+        <f t="shared" ref="F7:F25" si="0">E7/6.86</f>
+        <v>242.71137026239066</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>94.5</v>
+        <f>D8*B8</f>
+        <v>256.5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>13.775510204081632</v>
+        <v>37.390670553935855</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>30</v>
+      <c r="B9" s="5">
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
-        <v>22.5</v>
+        <v>14.18</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>675</v>
+        <f t="shared" ref="E9:E12" si="1">D9*B9</f>
+        <v>638.1</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>98.396501457725947</v>
+        <v>93.017492711370267</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>15</v>
+      <c r="B10" s="5">
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>35.9</v>
+        <v>7.4</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>538.5</v>
+        <v>222</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>78.498542274052468</v>
+        <v>32.361516034985421</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>30</v>
+      <c r="B11" s="5">
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
-        <v>21</v>
+        <v>14.97</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>630</v>
+        <v>224.55</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>91.836734693877546</v>
+        <v>32.733236151603499</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>30</v>
+      <c r="B12" s="5">
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>355.5</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>65.597667638483955</v>
+        <v>51.822157434402328</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -854,24 +931,24 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>14.8</v>
+        <v>2.1</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>222</v>
+        <f t="shared" ref="E13:E21" si="2">D13*B13</f>
+        <v>94.5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>32.361516034985421</v>
+        <v>13.775510204081632</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -879,24 +956,24 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
+        <f t="shared" si="2"/>
+        <v>94.5</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>7.2157434402332354</v>
+        <v>13.775510204081632</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -904,25 +981,24 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
-        <f>300*0.25</f>
-        <v>75</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="1">
-        <f>D15*B15</f>
-        <v>1125</v>
+        <f t="shared" si="2"/>
+        <v>94.5</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>163.9941690962099</v>
+        <v>13.775510204081632</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -930,24 +1006,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>4.2</v>
+        <v>22.5</v>
       </c>
       <c r="E16" s="1">
-        <f>D16*B16</f>
-        <v>189</v>
+        <f t="shared" si="2"/>
+        <v>675</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>27.551020408163264</v>
+        <v>98.396501457725947</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -955,24 +1031,24 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>6.8</v>
+        <v>35.9</v>
       </c>
       <c r="E17" s="1">
-        <f>D17*B17</f>
-        <v>306</v>
+        <f t="shared" si="2"/>
+        <v>538.5</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>44.606413994169095</v>
+        <v>78.498542274052468</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -980,24 +1056,24 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1">
-        <f>D18*B18</f>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>1860</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>11.661807580174926</v>
+        <v>271.13702623906704</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1005,312 +1081,582 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>65.597667638483955</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>32.361516034985421</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>49.5</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2157434402332354</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <f>300*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22*B22</f>
+        <v>1125</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>163.9941690962099</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23*B23</f>
+        <v>189</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>27.551020408163264</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24*B24</f>
+        <v>306</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>44.606413994169095</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>125</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25*B25</f>
+        <v>1875</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>273.32361516034985</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4">
+        <f>SUM(E4:E25)</f>
+        <v>13705.650000000001</v>
+      </c>
+      <c r="F26" s="18">
+        <f>SUM(F4:F25)</f>
+        <v>1997.9081632653063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E19" s="1">
-        <f>D19*B19</f>
-        <v>3500</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>510.20408163265301</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
-        <f>SUM(E4:E19)</f>
-        <v>10283.5</v>
-      </c>
-      <c r="F20" s="7">
-        <f>SUM(F4:F19)</f>
-        <v>1499.0524781341107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75">
-      <c r="A25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="10">
+    <row r="53" spans="1:3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="19">
+        <v>2</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="19">
         <v>3</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B69" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="1" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="1" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="1" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="1" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="1" t="s">
-        <v>18</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="B54:B68"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B33:B53"/>
+    <mergeCell ref="A33:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
